--- a/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>378690</v>
+        <v>190521</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>431</v>
+        <v>267</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>328983</v>
+        <v>189218</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>92,61%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>880</v>
+        <v>518</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>707673</v>
+        <v>379740</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,98%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>24020</v>
+        <v>13860</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>21825</v>
+        <v>9049</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>45846</v>
+        <v>22909</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,0%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>402710</v>
+        <v>204381</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>753519</v>
+        <v>402649</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>190521</v>
+        <v>378690</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>267</v>
+        <v>431</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>189218</v>
+        <v>328983</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>518</v>
+        <v>880</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>379740</v>
+        <v>707673</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,31%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>13860</v>
+        <v>24020</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>9049</v>
+        <v>21825</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>22909</v>
+        <v>45846</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>204381</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>402649</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por motivos de salud en 2023 (Tasa respuesta: 99,9%)</t>
+          <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -670,75 +670,75 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>108796</v>
+        <v>2961</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>96769</v>
+        <v>4074</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>205564</v>
+        <v>7035</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -746,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9142</v>
+        <v>55542</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>7034</v>
+        <v>53295</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>86,62%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>16177</v>
+        <v>108836</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,75 +887,75 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>190521</v>
+        <v>13931</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>189218</v>
+        <v>9317</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>518</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>379740</v>
+        <v>23249</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -963,70 +963,70 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>13860</v>
+        <v>160694</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>9049</v>
+        <v>149448</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>33</v>
+        <v>494</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>22909</v>
+        <v>310140</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>204381</v>
+        <v>174625</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>402649</v>
+        <v>333389</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>449</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>378690</v>
+        <v>15127</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>431</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>328983</v>
+        <v>10292</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>880</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>707673</v>
+        <v>25420</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>9,23%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1180,70 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>24020</v>
+        <v>187351</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>21825</v>
+        <v>165821</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>61</v>
+        <v>443</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>45846</v>
+        <v>353171</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>95,28%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,75 +1321,75 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>910</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>678007</v>
+        <v>15003</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>884</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>614970</v>
+        <v>14225</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>1794</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1292977</v>
+        <v>29229</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>7,58%</t>
         </is>
       </c>
     </row>
@@ -1397,70 +1397,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>47023</v>
+        <v>274421</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>37909</v>
+        <v>246408</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>84932</v>
+        <v>520828</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>95,97%</t>
         </is>
       </c>
     </row>
@@ -1472,73 +1472,298 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>47023</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>37909</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>84932</v>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>910</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>678007</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>93,51%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91,64%</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94,89%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>884</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>614970</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94,19%</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>95,7%</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>1794</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>1292977</v>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>93,84%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>92,66%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>94,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>976</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>725030</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>942</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>652879</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
         <v>1918</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N18" s="2" t="n">
         <v>1377909</v>
       </c>
-      <c r="O15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,62%</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,96%</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>9,07%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,25%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +543,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -679,52 +679,52 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3969</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2961</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>8</v>
-      </c>
       <c r="I4" s="2" t="n">
-        <v>4074</v>
+        <v>3255</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7035</v>
+        <v>7224</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -750,52 +750,52 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>53542</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87,18%</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>96,94%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>55542</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>94,94%</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>88,15%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>98,23%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>101</v>
-      </c>
       <c r="I5" s="2" t="n">
-        <v>53295</v>
+        <v>58189</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>212</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>108836</v>
+        <v>111731</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -821,31 +821,31 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>109</v>
-      </c>
       <c r="I6" s="2" t="n">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -896,56 +896,56 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>9081</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>13931</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11,79%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>15</v>
-      </c>
       <c r="I7" s="2" t="n">
-        <v>9317</v>
+        <v>14470</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>39</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>23249</v>
+        <v>23551</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,34%</t>
         </is>
       </c>
     </row>
@@ -967,61 +967,61 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>150218</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94,3%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>90,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>96,87%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>160694</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>92,02%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>88,21%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>94,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>243</v>
-      </c>
       <c r="I8" s="2" t="n">
-        <v>149448</v>
+        <v>167360</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>494</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>310140</v>
+        <v>317579</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1038,31 +1038,31 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>275</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>174625</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>258</v>
-      </c>
       <c r="I9" s="2" t="n">
-        <v>158765</v>
+        <v>181830</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>333389</v>
+        <v>341130</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10549</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>15127</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>15</v>
-      </c>
       <c r="I10" s="2" t="n">
-        <v>10292</v>
+        <v>15688</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>33</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>25420</v>
+        <v>26237</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,42%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>162523</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>93,91%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90,12%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96,34%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>187351</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>92,53%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>88,78%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>95,67%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>218</v>
-      </c>
       <c r="I11" s="2" t="n">
-        <v>165821</v>
+        <v>196802</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>443</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>353171</v>
+        <v>359326</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,18%</t>
         </is>
       </c>
     </row>
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>233</v>
-      </c>
       <c r="I12" s="2" t="n">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>13839</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>15003</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>20</v>
-      </c>
       <c r="I13" s="2" t="n">
-        <v>14225</v>
+        <v>15004</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>39</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>29229</v>
+        <v>28842</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,69%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>261619</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>96,95%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>274421</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>94,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>92,18%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>96,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>322</v>
-      </c>
       <c r="I14" s="2" t="n">
-        <v>246408</v>
+        <v>290479</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>645</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>520828</v>
+        <v>552098</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>96,52%</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>37437</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>47023</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>8,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>58</v>
-      </c>
       <c r="I16" s="2" t="n">
-        <v>37909</v>
+        <v>48417</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>124</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>84932</v>
+        <v>85854</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1618,66 +1618,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
+        <v>884</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>627903</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>94,37%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>910</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>678007</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>93,51%</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>91,62%</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>94,85%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>884</v>
-      </c>
       <c r="I17" s="2" t="n">
-        <v>614970</v>
+        <v>712831</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>1794</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1292977</v>
+        <v>1340734</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,02%</t>
         </is>
       </c>
     </row>
@@ -1689,31 +1689,31 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
+        <v>942</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>976</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>942</v>
-      </c>
       <c r="I18" s="2" t="n">
-        <v>652879</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1377909</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
